--- a/MixedBrændselwTarif.xlsx
+++ b/MixedBrændselwTarif.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Variable" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="247">
   <si>
     <t xml:space="preserve">00:00-02:00</t>
   </si>
@@ -406,23 +407,7 @@
     <t xml:space="preserve">højLast tarif</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I tidsrummet 06:00 – 17:00 og 21:00 – 00:00, benyttes højlast, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">som adderes el-spot prisen</t>
-    </r>
+    <t xml:space="preserve">I tidsrummet 06:00 – 17:00 og 21:00 – 00:00, benyttes højlast, som adderes el-spot prisen</t>
   </si>
   <si>
     <t xml:space="preserve">0.1957 DKK/kWh</t>
@@ -461,23 +446,7 @@
     <t xml:space="preserve">SpidsLast tarif</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I tidsrummet 17:00 – 21:00 , benyttes spidslast, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">som adderes el-spot prisen</t>
-    </r>
+    <t xml:space="preserve">I tidsrummet 17:00 – 21:00 , benyttes spidslast, som adderes el-spot prisen</t>
   </si>
   <si>
     <t xml:space="preserve">0.587 DKK/kWh</t>
@@ -703,6 +672,96 @@
   </si>
   <si>
     <t xml:space="preserve">Electricity (0.3593)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumRunTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumPriceDifference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiencyEl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficencyGas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Tårn2 damp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElAfgift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LavLast (A-lav)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HøjLast (A-lav)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpidsLast (A-Lav)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SystemTarif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmissions nettarif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas (gns pris)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41 pr/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3/kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 afgift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nox afgift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DistrubutionsAfgift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.316 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaturGasAfgift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.531 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kapacitetsTillæg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069 m3</t>
   </si>
 </sst>
 </file>
@@ -713,7 +772,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -740,11 +799,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -859,12 +913,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -939,6 +993,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3682800" y="487440"/>
+          <a:ext cx="7132680" cy="2170800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -946,22 +1042,22 @@
   </sheetPr>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="100.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="100.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="21" style="1" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="15.88"/>
@@ -1525,7 +1621,7 @@
       <c r="R10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T10" s="10"/>
@@ -2265,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="10"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="11"/>
       <c r="T23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,4 +2840,243 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">10.55*B10</f>
+        <v>7.2795</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">10.55*B11</f>
+        <v>0.2321</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">10.55*B12</f>
+        <v>0.70685</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">10.55*B13</f>
+        <v>1.42425</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">10.55*B14</f>
+        <v>0.5697</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">10.55*B15</f>
+        <v>0.6119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <f aca="false">SUM(C10,C13,C15,C14)</f>
+        <v>9.88535</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <f aca="false">4.42+C16</f>
+        <v>14.30535</v>
+      </c>
+      <c r="D24" s="12" t="n">
+        <f aca="false">C24/10.55</f>
+        <v>1.35595734597156</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <f aca="false">8.66/0.95</f>
+        <v>9.11578947368421</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MixedBrændselwTarif.xlsx
+++ b/MixedBrændselwTarif.xlsx
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="Q5" activeCellId="1" sqref="J33:J34 Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2850,7 +2850,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J33:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
